--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H2">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I2">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J2">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.271391463427962</v>
+        <v>0.060837</v>
       </c>
       <c r="N2">
-        <v>0.271391463427962</v>
+        <v>0.121674</v>
       </c>
       <c r="O2">
-        <v>0.005777305823278422</v>
+        <v>0.001195930631606881</v>
       </c>
       <c r="P2">
-        <v>0.005777305823278422</v>
+        <v>0.0008105774001955342</v>
       </c>
       <c r="Q2">
-        <v>2.435416141756994</v>
+        <v>0.5472600852180001</v>
       </c>
       <c r="R2">
-        <v>2.435416141756994</v>
+        <v>2.189040340872</v>
       </c>
       <c r="S2">
-        <v>0.0008046425594875408</v>
+        <v>0.0001639585122330123</v>
       </c>
       <c r="T2">
-        <v>0.0008046425594875408</v>
+        <v>8.051340606726992E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H3">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I3">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J3">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.2498033481637</v>
+        <v>0.3477863333333333</v>
       </c>
       <c r="N3">
-        <v>18.2498033481637</v>
+        <v>1.043359</v>
       </c>
       <c r="O3">
-        <v>0.3884967265560978</v>
+        <v>0.0068367659366434</v>
       </c>
       <c r="P3">
-        <v>0.3884967265560978</v>
+        <v>0.006950730852035869</v>
       </c>
       <c r="Q3">
-        <v>163.7703157520516</v>
+        <v>3.128516830508667</v>
       </c>
       <c r="R3">
-        <v>163.7703157520516</v>
+        <v>18.771100983052</v>
       </c>
       <c r="S3">
-        <v>0.05410843911864086</v>
+        <v>0.0009373001592502557</v>
       </c>
       <c r="T3">
-        <v>0.05410843911864086</v>
+        <v>0.0006904054016547551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H4">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I4">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J4">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.7825574460846</v>
+        <v>20.760696</v>
       </c>
       <c r="N4">
-        <v>26.7825574460846</v>
+        <v>62.282088</v>
       </c>
       <c r="O4">
-        <v>0.5701396172935452</v>
+        <v>0.4081126991777774</v>
       </c>
       <c r="P4">
-        <v>0.5701396172935452</v>
+        <v>0.4149157007231576</v>
       </c>
       <c r="Q4">
-        <v>240.3416522312322</v>
+        <v>186.753131517744</v>
       </c>
       <c r="R4">
-        <v>240.3416522312322</v>
+        <v>1120.518789106464</v>
       </c>
       <c r="S4">
-        <v>0.07940701339988879</v>
+        <v>0.05595103027897248</v>
       </c>
       <c r="T4">
-        <v>0.07940701339988879</v>
+        <v>0.04121293819436724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H5">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I5">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J5">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.160866160674437</v>
+        <v>27.07910933333333</v>
       </c>
       <c r="N5">
-        <v>0.160866160674437</v>
+        <v>81.23732799999999</v>
       </c>
       <c r="O5">
-        <v>0.003424473987110355</v>
+        <v>0.5323197450295891</v>
       </c>
       <c r="P5">
-        <v>0.003424473987110355</v>
+        <v>0.5411932058539365</v>
       </c>
       <c r="Q5">
-        <v>1.443582784146749</v>
+        <v>243.5905071155306</v>
       </c>
       <c r="R5">
-        <v>1.443582784146749</v>
+        <v>1461.543042693184</v>
       </c>
       <c r="S5">
-        <v>0.0004769485289811681</v>
+        <v>0.07297944472752452</v>
       </c>
       <c r="T5">
-        <v>0.0004769485289811681</v>
+        <v>0.05375588849782201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.973812628426501</v>
+        <v>8.995514</v>
       </c>
       <c r="H6">
-        <v>8.973812628426501</v>
+        <v>17.991028</v>
       </c>
       <c r="I6">
-        <v>0.1392764350894158</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J6">
-        <v>0.1392764350894158</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.51081818298828</v>
+        <v>0.1802056666666667</v>
       </c>
       <c r="N6">
-        <v>1.51081818298828</v>
+        <v>0.540617</v>
       </c>
       <c r="O6">
-        <v>0.0321618763399682</v>
+        <v>0.003542473770169564</v>
       </c>
       <c r="P6">
-        <v>0.0321618763399682</v>
+        <v>0.003601524749424767</v>
       </c>
       <c r="Q6">
-        <v>13.55779928975661</v>
+        <v>1.621042597379333</v>
       </c>
       <c r="R6">
-        <v>13.55779928975661</v>
+        <v>9.726255584276</v>
       </c>
       <c r="S6">
-        <v>0.004479391482417397</v>
+        <v>0.0004856625573684567</v>
       </c>
       <c r="T6">
-        <v>0.004479391482417397</v>
+        <v>0.0003577339123220183</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.285816674710221</v>
+        <v>8.995514</v>
       </c>
       <c r="H7">
-        <v>8.285816674710221</v>
+        <v>17.991028</v>
       </c>
       <c r="I7">
-        <v>0.1285985183825291</v>
+        <v>0.1370970087225826</v>
       </c>
       <c r="J7">
-        <v>0.1285985183825291</v>
+        <v>0.09932846147431178</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.271391463427962</v>
+        <v>2.441373</v>
       </c>
       <c r="N7">
-        <v>0.271391463427962</v>
+        <v>4.882746</v>
       </c>
       <c r="O7">
-        <v>0.005777305823278422</v>
+        <v>0.04799238545421348</v>
       </c>
       <c r="P7">
-        <v>0.005777305823278422</v>
+        <v>0.03252826042124976</v>
       </c>
       <c r="Q7">
-        <v>2.248699913045416</v>
+        <v>21.961405000722</v>
       </c>
       <c r="R7">
-        <v>2.248699913045416</v>
+        <v>87.845620002888</v>
       </c>
       <c r="S7">
-        <v>0.0007429529691163623</v>
+        <v>0.006579612487233853</v>
       </c>
       <c r="T7">
-        <v>0.0007429529691163623</v>
+        <v>0.003230982062078488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H8">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I8">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J8">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>18.2498033481637</v>
+        <v>0.060837</v>
       </c>
       <c r="N8">
-        <v>18.2498033481637</v>
+        <v>0.121674</v>
       </c>
       <c r="O8">
-        <v>0.3884967265560978</v>
+        <v>0.001195930631606881</v>
       </c>
       <c r="P8">
-        <v>0.3884967265560978</v>
+        <v>0.0008105774001955342</v>
       </c>
       <c r="Q8">
-        <v>151.2145248923972</v>
+        <v>0.545518788325</v>
       </c>
       <c r="R8">
-        <v>151.2145248923972</v>
+        <v>3.27311272995</v>
       </c>
       <c r="S8">
-        <v>0.04996010343157672</v>
+        <v>0.0001634368216225624</v>
       </c>
       <c r="T8">
-        <v>0.04996010343157672</v>
+        <v>0.0001203858373050532</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H9">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I9">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J9">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.7825574460846</v>
+        <v>0.3477863333333333</v>
       </c>
       <c r="N9">
-        <v>26.7825574460846</v>
+        <v>1.043359</v>
       </c>
       <c r="O9">
-        <v>0.5701396172935452</v>
+        <v>0.0068367659366434</v>
       </c>
       <c r="P9">
-        <v>0.5701396172935452</v>
+        <v>0.006950730852035869</v>
       </c>
       <c r="Q9">
-        <v>221.9153610781522</v>
+        <v>3.118562374147222</v>
       </c>
       <c r="R9">
-        <v>221.9153610781522</v>
+        <v>28.067061367325</v>
       </c>
       <c r="S9">
-        <v>0.07331911005513206</v>
+        <v>0.0009343178152072755</v>
       </c>
       <c r="T9">
-        <v>0.07331911005513206</v>
+        <v>0.001032312957778679</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H10">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I10">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J10">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.160866160674437</v>
+        <v>20.760696</v>
       </c>
       <c r="N10">
-        <v>0.160866160674437</v>
+        <v>62.282088</v>
       </c>
       <c r="O10">
-        <v>0.003424473987110355</v>
+        <v>0.4081126991777774</v>
       </c>
       <c r="P10">
-        <v>0.003424473987110355</v>
+        <v>0.4149157007231576</v>
       </c>
       <c r="Q10">
-        <v>1.332907516512863</v>
+        <v>186.1589119566</v>
       </c>
       <c r="R10">
-        <v>1.332907516512863</v>
+        <v>1675.4302076094</v>
       </c>
       <c r="S10">
-        <v>0.0004403822809819036</v>
+        <v>0.05577300276003492</v>
       </c>
       <c r="T10">
-        <v>0.0004403822809819036</v>
+        <v>0.06162270750519424</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.285816674710221</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H11">
-        <v>8.285816674710221</v>
+        <v>26.900675</v>
       </c>
       <c r="I11">
-        <v>0.1285985183825291</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J11">
-        <v>0.1285985183825291</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.51081818298828</v>
+        <v>27.07910933333333</v>
       </c>
       <c r="N11">
-        <v>1.51081818298828</v>
+        <v>81.23732799999999</v>
       </c>
       <c r="O11">
-        <v>0.0321618763399682</v>
+        <v>0.5323197450295891</v>
       </c>
       <c r="P11">
-        <v>0.0321618763399682</v>
+        <v>0.5411932058539365</v>
       </c>
       <c r="Q11">
-        <v>12.51836249305969</v>
+        <v>242.8154398218222</v>
       </c>
       <c r="R11">
-        <v>12.51836249305969</v>
+        <v>2185.3389583964</v>
       </c>
       <c r="S11">
-        <v>0.004135969645722027</v>
+        <v>0.07274723542925957</v>
       </c>
       <c r="T11">
-        <v>0.004135969645722027</v>
+        <v>0.08037726837044265</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.7437348013044</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H12">
-        <v>17.7437348013044</v>
+        <v>26.900675</v>
       </c>
       <c r="I12">
-        <v>0.2753884252574375</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J12">
-        <v>0.2753884252574375</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.271391463427962</v>
+        <v>0.1802056666666667</v>
       </c>
       <c r="N12">
-        <v>0.271391463427962</v>
+        <v>0.540617</v>
       </c>
       <c r="O12">
-        <v>0.005777305823278422</v>
+        <v>0.003542473770169564</v>
       </c>
       <c r="P12">
-        <v>0.005777305823278422</v>
+        <v>0.003601524749424767</v>
       </c>
       <c r="Q12">
-        <v>4.815498154403659</v>
+        <v>1.615884690719445</v>
       </c>
       <c r="R12">
-        <v>4.815498154403659</v>
+        <v>14.542962216475</v>
       </c>
       <c r="S12">
-        <v>0.001591003152903268</v>
+        <v>0.0004841172542757687</v>
       </c>
       <c r="T12">
-        <v>0.001591003152903268</v>
+        <v>0.0005348934875679762</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.7437348013044</v>
+        <v>8.966891666666667</v>
       </c>
       <c r="H13">
-        <v>17.7437348013044</v>
+        <v>26.900675</v>
       </c>
       <c r="I13">
-        <v>0.2753884252574375</v>
+        <v>0.1366607872590108</v>
       </c>
       <c r="J13">
-        <v>0.2753884252574375</v>
+        <v>0.1485186205241013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.2498033481637</v>
+        <v>2.441373</v>
       </c>
       <c r="N13">
-        <v>18.2498033481637</v>
+        <v>4.882746</v>
       </c>
       <c r="O13">
-        <v>0.3884967265560978</v>
+        <v>0.04799238545421348</v>
       </c>
       <c r="P13">
-        <v>0.3884967265560978</v>
+        <v>0.03252826042124976</v>
       </c>
       <c r="Q13">
-        <v>323.8196707857738</v>
+        <v>21.891527208925</v>
       </c>
       <c r="R13">
-        <v>323.8196707857738</v>
+        <v>131.34916325355</v>
       </c>
       <c r="S13">
-        <v>0.1069875017439531</v>
+        <v>0.006558677178610714</v>
       </c>
       <c r="T13">
-        <v>0.1069875017439531</v>
+        <v>0.004831052365812737</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H14">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I14">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J14">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>26.7825574460846</v>
+        <v>0.060837</v>
       </c>
       <c r="N14">
-        <v>26.7825574460846</v>
+        <v>0.121674</v>
       </c>
       <c r="O14">
-        <v>0.5701396172935452</v>
+        <v>0.001195930631606881</v>
       </c>
       <c r="P14">
-        <v>0.5701396172935452</v>
+        <v>0.0008105774001955342</v>
       </c>
       <c r="Q14">
-        <v>475.2225966240256</v>
+        <v>1.090619119485</v>
       </c>
       <c r="R14">
-        <v>475.2225966240256</v>
+        <v>6.54371471691</v>
       </c>
       <c r="S14">
-        <v>0.1570098513833475</v>
+        <v>0.0003267482739443848</v>
       </c>
       <c r="T14">
-        <v>0.1570098513833475</v>
+        <v>0.0002406793289067814</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H15">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I15">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J15">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.160866160674437</v>
+        <v>0.3477863333333333</v>
       </c>
       <c r="N15">
-        <v>0.160866160674437</v>
+        <v>1.043359</v>
       </c>
       <c r="O15">
-        <v>0.003424473987110355</v>
+        <v>0.0068367659366434</v>
       </c>
       <c r="P15">
-        <v>0.003424473987110355</v>
+        <v>0.006950730852035869</v>
       </c>
       <c r="Q15">
-        <v>2.854366493511233</v>
+        <v>6.234732557965</v>
       </c>
       <c r="R15">
-        <v>2.854366493511233</v>
+        <v>56.11259302168499</v>
       </c>
       <c r="S15">
-        <v>0.0009430604986453788</v>
+        <v>0.001867918932855222</v>
       </c>
       <c r="T15">
-        <v>0.0009430604986453788</v>
+        <v>0.002063834047773974</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.7437348013044</v>
+        <v>17.926905</v>
       </c>
       <c r="H16">
-        <v>17.7437348013044</v>
+        <v>53.780715</v>
       </c>
       <c r="I16">
-        <v>0.2753884252574375</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J16">
-        <v>0.2753884252574375</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.51081818298828</v>
+        <v>20.760696</v>
       </c>
       <c r="N16">
-        <v>1.51081818298828</v>
+        <v>62.282088</v>
       </c>
       <c r="O16">
-        <v>0.0321618763399682</v>
+        <v>0.4081126991777774</v>
       </c>
       <c r="P16">
-        <v>0.0321618763399682</v>
+        <v>0.4149157007231576</v>
       </c>
       <c r="Q16">
-        <v>26.80755717193262</v>
+        <v>372.17502492588</v>
       </c>
       <c r="R16">
-        <v>26.80755717193262</v>
+        <v>3349.57522433292</v>
       </c>
       <c r="S16">
-        <v>0.008857008478588278</v>
+        <v>0.1115032231024557</v>
       </c>
       <c r="T16">
-        <v>0.008857008478588278</v>
+        <v>0.1231981453946867</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.0459063141213</v>
+        <v>17.926905</v>
       </c>
       <c r="H17">
-        <v>17.0459063141213</v>
+        <v>53.780715</v>
       </c>
       <c r="I17">
-        <v>0.2645579044940745</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J17">
-        <v>0.2645579044940745</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.271391463427962</v>
+        <v>27.07910933333333</v>
       </c>
       <c r="N17">
-        <v>0.271391463427962</v>
+        <v>81.23732799999999</v>
       </c>
       <c r="O17">
-        <v>0.005777305823278422</v>
+        <v>0.5323197450295891</v>
       </c>
       <c r="P17">
-        <v>0.005777305823278422</v>
+        <v>0.5411932058539365</v>
       </c>
       <c r="Q17">
-        <v>4.626113460045318</v>
+        <v>485.44462050328</v>
       </c>
       <c r="R17">
-        <v>4.626113460045318</v>
+        <v>4369.001584529519</v>
       </c>
       <c r="S17">
-        <v>0.001528431922227953</v>
+        <v>0.1454386678274397</v>
       </c>
       <c r="T17">
-        <v>0.001528431922227953</v>
+        <v>0.1606928808555655</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.0459063141213</v>
+        <v>17.926905</v>
       </c>
       <c r="H18">
-        <v>17.0459063141213</v>
+        <v>53.780715</v>
       </c>
       <c r="I18">
-        <v>0.2645579044940745</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J18">
-        <v>0.2645579044940745</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.2498033481637</v>
+        <v>0.1802056666666667</v>
       </c>
       <c r="N18">
-        <v>18.2498033481637</v>
+        <v>0.540617</v>
       </c>
       <c r="O18">
-        <v>0.3884967265560978</v>
+        <v>0.003542473770169564</v>
       </c>
       <c r="P18">
-        <v>0.3884967265560978</v>
+        <v>0.003601524749424767</v>
       </c>
       <c r="Q18">
-        <v>311.0844381239356</v>
+        <v>3.230529866795</v>
       </c>
       <c r="R18">
-        <v>311.0844381239356</v>
+        <v>29.074768801155</v>
       </c>
       <c r="S18">
-        <v>0.1027798798804887</v>
+        <v>0.000967863151344256</v>
       </c>
       <c r="T18">
-        <v>0.1027798798804887</v>
+        <v>0.001069376668438594</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.0459063141213</v>
+        <v>17.926905</v>
       </c>
       <c r="H19">
-        <v>17.0459063141213</v>
+        <v>53.780715</v>
       </c>
       <c r="I19">
-        <v>0.2645579044940745</v>
+        <v>0.2732167446078023</v>
       </c>
       <c r="J19">
-        <v>0.2645579044940745</v>
+        <v>0.2969233152179209</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>26.7825574460846</v>
+        <v>2.441373</v>
       </c>
       <c r="N19">
-        <v>26.7825574460846</v>
+        <v>4.882746</v>
       </c>
       <c r="O19">
-        <v>0.5701396172935452</v>
+        <v>0.04799238545421348</v>
       </c>
       <c r="P19">
-        <v>0.5701396172935452</v>
+        <v>0.03252826042124976</v>
       </c>
       <c r="Q19">
-        <v>456.5329650785299</v>
+        <v>43.766261840565</v>
       </c>
       <c r="R19">
-        <v>456.5329650785299</v>
+        <v>262.59757104339</v>
       </c>
       <c r="S19">
-        <v>0.1508349424202339</v>
+        <v>0.01311232331976305</v>
       </c>
       <c r="T19">
-        <v>0.1508349424202339</v>
+        <v>0.009658398922549364</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H20">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I20">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J20">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.160866160674437</v>
+        <v>0.060837</v>
       </c>
       <c r="N20">
-        <v>0.160866160674437</v>
+        <v>0.121674</v>
       </c>
       <c r="O20">
-        <v>0.003424473987110355</v>
+        <v>0.001195930631606881</v>
       </c>
       <c r="P20">
-        <v>0.003424473987110355</v>
+        <v>0.0008105774001955342</v>
       </c>
       <c r="Q20">
-        <v>2.742109503968837</v>
+        <v>1.046864459599</v>
       </c>
       <c r="R20">
-        <v>2.742109503968837</v>
+        <v>6.281186757593999</v>
       </c>
       <c r="S20">
-        <v>0.0009059716620243837</v>
+        <v>0.0003136394265572923</v>
       </c>
       <c r="T20">
-        <v>0.0009059716620243837</v>
+        <v>0.0002310234903195396</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.0459063141213</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H21">
-        <v>17.0459063141213</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I21">
-        <v>0.2645579044940745</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J21">
-        <v>0.2645579044940745</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.51081818298828</v>
+        <v>0.3477863333333333</v>
       </c>
       <c r="N21">
-        <v>1.51081818298828</v>
+        <v>1.043359</v>
       </c>
       <c r="O21">
-        <v>0.0321618763399682</v>
+        <v>0.0068367659366434</v>
       </c>
       <c r="P21">
-        <v>0.0321618763399682</v>
+        <v>0.006950730852035869</v>
       </c>
       <c r="Q21">
-        <v>25.75326520488919</v>
+        <v>5.984600685453221</v>
       </c>
       <c r="R21">
-        <v>25.75326520488919</v>
+        <v>53.86140616907899</v>
       </c>
       <c r="S21">
-        <v>0.00850867860909954</v>
+        <v>0.001792979702337886</v>
       </c>
       <c r="T21">
-        <v>0.00850867860909954</v>
+        <v>0.001981034878744058</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.69262766584481</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H22">
-        <v>5.69262766584481</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I22">
-        <v>0.08835139760760394</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J22">
-        <v>0.08835139760760394</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.271391463427962</v>
+        <v>20.760696</v>
       </c>
       <c r="N22">
-        <v>0.271391463427962</v>
+        <v>62.282088</v>
       </c>
       <c r="O22">
-        <v>0.005777305823278422</v>
+        <v>0.4081126991777774</v>
       </c>
       <c r="P22">
-        <v>0.005777305823278422</v>
+        <v>0.4149157007231576</v>
       </c>
       <c r="Q22">
-        <v>1.544930552984126</v>
+        <v>357.243697074792</v>
       </c>
       <c r="R22">
-        <v>1.544930552984126</v>
+        <v>3215.193273673128</v>
       </c>
       <c r="S22">
-        <v>0.0005104330438931975</v>
+        <v>0.107029813902235</v>
       </c>
       <c r="T22">
-        <v>0.0005104330438931975</v>
+        <v>0.1182555464121235</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.69262766584481</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H23">
-        <v>5.69262766584481</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I23">
-        <v>0.08835139760760394</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J23">
-        <v>0.08835139760760394</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>18.2498033481637</v>
+        <v>27.07910933333333</v>
       </c>
       <c r="N23">
-        <v>18.2498033481637</v>
+        <v>81.23732799999999</v>
       </c>
       <c r="O23">
-        <v>0.3884967265560978</v>
+        <v>0.5323197450295891</v>
       </c>
       <c r="P23">
-        <v>0.3884967265560978</v>
+        <v>0.5411932058539365</v>
       </c>
       <c r="Q23">
-        <v>103.8893354359839</v>
+        <v>465.9690181741741</v>
       </c>
       <c r="R23">
-        <v>103.8893354359839</v>
+        <v>4193.721163567567</v>
       </c>
       <c r="S23">
-        <v>0.03432422875721038</v>
+        <v>0.1396037990530251</v>
       </c>
       <c r="T23">
-        <v>0.03432422875721038</v>
+        <v>0.1542460267501131</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.69262766584481</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H24">
-        <v>5.69262766584481</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I24">
-        <v>0.08835139760760394</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J24">
-        <v>0.08835139760760394</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.7825574460846</v>
+        <v>0.1802056666666667</v>
       </c>
       <c r="N24">
-        <v>26.7825574460846</v>
+        <v>0.540617</v>
       </c>
       <c r="O24">
-        <v>0.5701396172935452</v>
+        <v>0.003542473770169564</v>
       </c>
       <c r="P24">
-        <v>0.5701396172935452</v>
+        <v>0.003601524749424767</v>
       </c>
       <c r="Q24">
-        <v>152.4631274796591</v>
+        <v>3.100923908997444</v>
       </c>
       <c r="R24">
-        <v>152.4631274796591</v>
+        <v>27.908315180977</v>
       </c>
       <c r="S24">
-        <v>0.05037263201934915</v>
+        <v>0.0009290333506863898</v>
       </c>
       <c r="T24">
-        <v>0.05037263201934915</v>
+        <v>0.001026474236616521</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.69262766584481</v>
+        <v>17.20769366666666</v>
       </c>
       <c r="H25">
-        <v>5.69262766584481</v>
+        <v>51.62308099999999</v>
       </c>
       <c r="I25">
-        <v>0.08835139760760394</v>
+        <v>0.2622555341156191</v>
       </c>
       <c r="J25">
-        <v>0.08835139760760394</v>
+        <v>0.2850110183972687</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.160866160674437</v>
+        <v>2.441373</v>
       </c>
       <c r="N25">
-        <v>0.160866160674437</v>
+        <v>4.882746</v>
       </c>
       <c r="O25">
-        <v>0.003424473987110355</v>
+        <v>0.04799238545421348</v>
       </c>
       <c r="P25">
-        <v>0.003424473987110355</v>
+        <v>0.03252826042124976</v>
       </c>
       <c r="Q25">
-        <v>0.9157511567535365</v>
+        <v>42.01039871007099</v>
       </c>
       <c r="R25">
-        <v>0.9157511567535365</v>
+        <v>252.062392260426</v>
       </c>
       <c r="S25">
-        <v>0.0003025570628320837</v>
+        <v>0.01258626868077743</v>
       </c>
       <c r="T25">
-        <v>0.0003025570628320837</v>
+        <v>0.009270912629351962</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.69262766584481</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H26">
-        <v>5.69262766584481</v>
+        <v>17.390023</v>
       </c>
       <c r="I26">
-        <v>0.08835139760760394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J26">
-        <v>0.08835139760760394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>1.51081818298828</v>
+        <v>0.060837</v>
       </c>
       <c r="N26">
-        <v>1.51081818298828</v>
+        <v>0.121674</v>
       </c>
       <c r="O26">
-        <v>0.0321618763399682</v>
+        <v>0.001195930631606881</v>
       </c>
       <c r="P26">
-        <v>0.0321618763399682</v>
+        <v>0.0008105774001955342</v>
       </c>
       <c r="Q26">
-        <v>8.60052538654047</v>
+        <v>0.352652276417</v>
       </c>
       <c r="R26">
-        <v>8.60052538654047</v>
+        <v>2.115913658502</v>
       </c>
       <c r="S26">
-        <v>0.00284154672431912</v>
+        <v>0.0001056542293850714</v>
       </c>
       <c r="T26">
-        <v>0.00284154672431912</v>
+        <v>7.782378990895703E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2087,57 +2087,57 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.68976706171239</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H27">
-        <v>6.68976706171239</v>
+        <v>17.390023</v>
       </c>
       <c r="I27">
-        <v>0.1038273191689394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J27">
-        <v>0.1038273191689394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.271391463427962</v>
+        <v>0.3477863333333333</v>
       </c>
       <c r="N27">
-        <v>0.271391463427962</v>
+        <v>1.043359</v>
       </c>
       <c r="O27">
-        <v>0.005777305823278422</v>
+        <v>0.0068367659366434</v>
       </c>
       <c r="P27">
-        <v>0.005777305823278422</v>
+        <v>0.006950730852035869</v>
       </c>
       <c r="Q27">
-        <v>1.815545672870303</v>
+        <v>2.016004111917444</v>
       </c>
       <c r="R27">
-        <v>1.815545672870303</v>
+        <v>18.144037007257</v>
       </c>
       <c r="S27">
-        <v>0.000599842175650101</v>
+        <v>0.0006039925873891368</v>
       </c>
       <c r="T27">
-        <v>0.000599842175650101</v>
+        <v>0.000667341844729519</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.68976706171239</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H28">
-        <v>6.68976706171239</v>
+        <v>17.390023</v>
       </c>
       <c r="I28">
-        <v>0.1038273191689394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J28">
-        <v>0.1038273191689394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>18.2498033481637</v>
+        <v>20.760696</v>
       </c>
       <c r="N28">
-        <v>18.2498033481637</v>
+        <v>62.282088</v>
       </c>
       <c r="O28">
-        <v>0.3884967265560978</v>
+        <v>0.4081126991777774</v>
       </c>
       <c r="P28">
-        <v>0.3884967265560978</v>
+        <v>0.4149157007231576</v>
       </c>
       <c r="Q28">
-        <v>122.086933321274</v>
+        <v>120.342993645336</v>
       </c>
       <c r="R28">
-        <v>122.086933321274</v>
+        <v>1083.086942808024</v>
       </c>
       <c r="S28">
-        <v>0.04033657362422815</v>
+        <v>0.03605462691088869</v>
       </c>
       <c r="T28">
-        <v>0.04033657362422815</v>
+        <v>0.03983618629783827</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.68976706171239</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H29">
-        <v>6.68976706171239</v>
+        <v>17.390023</v>
       </c>
       <c r="I29">
-        <v>0.1038273191689394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J29">
-        <v>0.1038273191689394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>26.7825574460846</v>
+        <v>27.07910933333333</v>
       </c>
       <c r="N29">
-        <v>26.7825574460846</v>
+        <v>81.23732799999999</v>
       </c>
       <c r="O29">
-        <v>0.5701396172935452</v>
+        <v>0.5323197450295891</v>
       </c>
       <c r="P29">
-        <v>0.5701396172935452</v>
+        <v>0.5411932058539365</v>
       </c>
       <c r="Q29">
-        <v>179.1690706312367</v>
+        <v>156.9687780420604</v>
       </c>
       <c r="R29">
-        <v>179.1690706312367</v>
+        <v>1412.719002378544</v>
       </c>
       <c r="S29">
-        <v>0.05919606801559388</v>
+        <v>0.04702767113840967</v>
       </c>
       <c r="T29">
-        <v>0.05919606801559388</v>
+        <v>0.05196012909115367</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.68976706171239</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H30">
-        <v>6.68976706171239</v>
+        <v>17.390023</v>
       </c>
       <c r="I30">
-        <v>0.1038273191689394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J30">
-        <v>0.1038273191689394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.160866160674437</v>
+        <v>0.1802056666666667</v>
       </c>
       <c r="N30">
-        <v>0.160866160674437</v>
+        <v>0.540617</v>
       </c>
       <c r="O30">
-        <v>0.003424473987110355</v>
+        <v>0.003542473770169564</v>
       </c>
       <c r="P30">
-        <v>0.003424473987110355</v>
+        <v>0.003601524749424767</v>
       </c>
       <c r="Q30">
-        <v>1.076157143023982</v>
+        <v>1.044593562687889</v>
       </c>
       <c r="R30">
-        <v>1.076157143023982</v>
+        <v>9.401342064191001</v>
       </c>
       <c r="S30">
-        <v>0.0003555539536454373</v>
+        <v>0.0003129590683710526</v>
       </c>
       <c r="T30">
-        <v>0.0003555539536454373</v>
+        <v>0.0003457835184937671</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.68976706171239</v>
+        <v>5.796674333333333</v>
       </c>
       <c r="H31">
-        <v>6.68976706171239</v>
+        <v>17.390023</v>
       </c>
       <c r="I31">
-        <v>0.1038273191689394</v>
+        <v>0.08834478070280039</v>
       </c>
       <c r="J31">
-        <v>0.1038273191689394</v>
+        <v>0.09601031300673289</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.51081818298828</v>
+        <v>2.441373</v>
       </c>
       <c r="N31">
-        <v>1.51081818298828</v>
+        <v>4.882746</v>
       </c>
       <c r="O31">
-        <v>0.0321618763399682</v>
+        <v>0.04799238545421348</v>
       </c>
       <c r="P31">
-        <v>0.0321618763399682</v>
+        <v>0.03252826042124976</v>
       </c>
       <c r="Q31">
-        <v>10.10702171679116</v>
+        <v>14.151844207193</v>
       </c>
       <c r="R31">
-        <v>10.10702171679116</v>
+        <v>84.91106524315799</v>
       </c>
       <c r="S31">
-        <v>0.003339281399821839</v>
+        <v>0.004239876768356758</v>
       </c>
       <c r="T31">
-        <v>0.003339281399821839</v>
+        <v>0.003123048464608711</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>6.7205465</v>
+      </c>
+      <c r="H32">
+        <v>13.441093</v>
+      </c>
+      <c r="I32">
+        <v>0.1024251445921847</v>
+      </c>
+      <c r="J32">
+        <v>0.07420827137966444</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.060837</v>
+      </c>
+      <c r="N32">
+        <v>0.121674</v>
+      </c>
+      <c r="O32">
+        <v>0.001195930631606881</v>
+      </c>
+      <c r="P32">
+        <v>0.0008105774001955342</v>
+      </c>
+      <c r="Q32">
+        <v>0.4088578874205001</v>
+      </c>
+      <c r="R32">
+        <v>1.635431549682</v>
+      </c>
+      <c r="S32">
+        <v>0.0001224933678645576</v>
+      </c>
+      <c r="T32">
+        <v>6.015154768793307E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>6.7205465</v>
+      </c>
+      <c r="H33">
+        <v>13.441093</v>
+      </c>
+      <c r="I33">
+        <v>0.1024251445921847</v>
+      </c>
+      <c r="J33">
+        <v>0.07420827137966444</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.3477863333333333</v>
+      </c>
+      <c r="N33">
+        <v>1.043359</v>
+      </c>
+      <c r="O33">
+        <v>0.0068367659366434</v>
+      </c>
+      <c r="P33">
+        <v>0.006950730852035869</v>
+      </c>
+      <c r="Q33">
+        <v>2.337314225231167</v>
+      </c>
+      <c r="R33">
+        <v>14.023885351387</v>
+      </c>
+      <c r="S33">
+        <v>0.0007002567396036235</v>
+      </c>
+      <c r="T33">
+        <v>0.000515801721354884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>6.7205465</v>
+      </c>
+      <c r="H34">
+        <v>13.441093</v>
+      </c>
+      <c r="I34">
+        <v>0.1024251445921847</v>
+      </c>
+      <c r="J34">
+        <v>0.07420827137966444</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>20.760696</v>
+      </c>
+      <c r="N34">
+        <v>62.282088</v>
+      </c>
+      <c r="O34">
+        <v>0.4081126991777774</v>
+      </c>
+      <c r="P34">
+        <v>0.4149157007231576</v>
+      </c>
+      <c r="Q34">
+        <v>139.523222840364</v>
+      </c>
+      <c r="R34">
+        <v>837.139337042184</v>
+      </c>
+      <c r="S34">
+        <v>0.04180100222319064</v>
+      </c>
+      <c r="T34">
+        <v>0.03079017691894771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>6.7205465</v>
+      </c>
+      <c r="H35">
+        <v>13.441093</v>
+      </c>
+      <c r="I35">
+        <v>0.1024251445921847</v>
+      </c>
+      <c r="J35">
+        <v>0.07420827137966444</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>27.07910933333333</v>
+      </c>
+      <c r="N35">
+        <v>81.23732799999999</v>
+      </c>
+      <c r="O35">
+        <v>0.5323197450295891</v>
+      </c>
+      <c r="P35">
+        <v>0.5411932058539365</v>
+      </c>
+      <c r="Q35">
+        <v>181.9864134532507</v>
+      </c>
+      <c r="R35">
+        <v>1091.918480719504</v>
+      </c>
+      <c r="S35">
+        <v>0.05452292685393057</v>
+      </c>
+      <c r="T35">
+        <v>0.04016101228883952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>6.7205465</v>
+      </c>
+      <c r="H36">
+        <v>13.441093</v>
+      </c>
+      <c r="I36">
+        <v>0.1024251445921847</v>
+      </c>
+      <c r="J36">
+        <v>0.07420827137966444</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.1802056666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.540617</v>
+      </c>
+      <c r="O36">
+        <v>0.003542473770169564</v>
+      </c>
+      <c r="P36">
+        <v>0.003601524749424767</v>
+      </c>
+      <c r="Q36">
+        <v>1.211080562396833</v>
+      </c>
+      <c r="R36">
+        <v>7.266483374381</v>
+      </c>
+      <c r="S36">
+        <v>0.0003628383881236393</v>
+      </c>
+      <c r="T36">
+        <v>0.0002672629259858911</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>6.7205465</v>
+      </c>
+      <c r="H37">
+        <v>13.441093</v>
+      </c>
+      <c r="I37">
+        <v>0.1024251445921847</v>
+      </c>
+      <c r="J37">
+        <v>0.07420827137966444</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.441373</v>
+      </c>
+      <c r="N37">
+        <v>4.882746</v>
+      </c>
+      <c r="O37">
+        <v>0.04799238545421348</v>
+      </c>
+      <c r="P37">
+        <v>0.03252826042124976</v>
+      </c>
+      <c r="Q37">
+        <v>16.4073607703445</v>
+      </c>
+      <c r="R37">
+        <v>65.629443081378</v>
+      </c>
+      <c r="S37">
+        <v>0.004915627019471679</v>
+      </c>
+      <c r="T37">
+        <v>0.0024138659768485</v>
       </c>
     </row>
   </sheetData>
